--- a/src/sources/exercises.xlsx
+++ b/src/sources/exercises.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roman/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roman/Documents/projects/physics/src/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0261178B-34B6-AC49-942E-757BFC11F6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37474BE3-3EB7-C64E-8FF6-522914314D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{B3789CC9-61E8-47BE-93CC-76E693329D75}"/>
   </bookViews>
@@ -196,9 +196,6 @@
     <t>&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;Какое утверждение ложно?&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;ol&gt;&lt;li&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;Переменная может принадлежать пустому множеству&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/li&gt;&lt;li&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;Круги Эйлера применимы к любым множествам&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/li&gt;&lt;li&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;Мощность ℕ равна мощности ℤ&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/li&gt;&lt;li&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;{∅} ≠ ∅&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/li&gt;&lt;/ol&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;В ответе напиши номер под которым находится НЕ верный ответ.&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;</t>
   </si>
   <si>
-    <t>question</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -206,15 +203,26 @@
   </si>
   <si>
     <t>hint</t>
+  </si>
+  <si>
+    <t>answer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -709,63 +717,66 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1132,7 +1143,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1145,7 +1156,7 @@
     <col min="6" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34">
+    <row r="1" spans="1:6" ht="17">
       <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
@@ -1153,16 +1164,16 @@
         <v>25</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" customHeight="1">

--- a/src/sources/exercises.xlsx
+++ b/src/sources/exercises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roman/Documents/projects/physics/src/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37474BE3-3EB7-C64E-8FF6-522914314D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF039324-B56D-5A46-886D-1CD1CD67EDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{B3789CC9-61E8-47BE-93CC-76E693329D75}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
   <si>
     <r>
       <t xml:space="preserve">Множество </t>
@@ -207,14 +207,216 @@
   <si>
     <t>answer</t>
   </si>
+  <si>
+    <t>&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;Прочитайте текст и вставьте пропущенные слова:&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;Количество – это (A) ______ объектов в множестве. Для его измерения используют (B) ______, которые состоят из (C) ______. В десятичной системе счисления основание равно (D) ______.&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;Список: 1) характеристика, 2) цифры, 3) 10, 4) числа, 5) 2, 6) свойство&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество не зависит от природы объектов. Числа образуются из цифр. Основание = количеству цифр. </t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;Какое утверждение о системе счисления верно?&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;1) Определяет только способ записи букв&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;2) Основание равно количеству цифр в ней&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;3) Цифры могут повторяться без ограничений&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;4) Десятичная система использует цифры 1-10&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основание системы = количеству цифр (включая 0). </t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;Как образуется следующее число в десятичной системе после 9?&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;1) Добавляется новая цифра&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;2) Десятки +1, единицы 0&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;3) Число не изменяется&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;4) Используется римская запись&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">После максимальной цифры (9) разряд обнуляется, старший +1. </t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;Что означает основание системы счисления?&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;1) Количество цифр (включая 0)&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;2) Максимальное число для одной цифры&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;3) Номер первой цифры&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;4) Символ-разделитель&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основание определяет, сколько цифр используется в системе. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выберите число в двоичной системе:  1) 12, 2) 101, 3) 3A, 4) 99 </t>
+  </si>
+  <si>
+    <t>В двоичной системе только цифры 0 и 1. </t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;Какое число следует за 7 в восьмеричной системе?&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;1) 8, 2) 10, 3) 9, 4) 7&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Восьмеричные цифры: 0-7. После 7 разряд обнуляется, добавляется новый. </t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;Что общего у десятичной и двоичной систем?&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;1) Одинаковое основание&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;2) Принцип перехода разряда&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;3) Одинаковый набор цифр&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;4) Только для дробных чисел&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В обеих системах при переполнении разряда он обнуляется, старший +1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как записать "два" в троичной системе? 
+1) 2, 2) 10, 3) 11, 4) 20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Троичные цифры: 0,1,2. Числа &lt;3 записываются одной цифрой. </t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;Что неверно о числе 0?&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;1) Цифра в любой системе&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;2) Обозначает отсутствие количества&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;3) Все системы включают ноль&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;4) В римской системе есть символ 0&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Римская система не имела символа для нуля. </t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;Для чего нужны разные системы счисления?&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;1) Усложнить математику&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;2) Использование в разных областях&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;3) Запутать учеников&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;4) Только для истории&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каждая система удобна для конкретных задач (двоичная - для техники). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В какой системе число "100" будет наименьшим? 
+1) Двоичная 2) Восьмеричная 3) Десятичная 4) Шестнадцатеричная </t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;Переведите "100" в каждой системе:&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;• 100₂ = 4&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;• 100₈ = 64&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;• 100₁₀ = 100&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;• 100₁₆ = 256&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;Могла ли существовать система с основанием 1?&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;1) Да, с цифрой 0&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;2) Да, с цифрой 1&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;3) Нет&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;4) Да, только для нуля&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В какой системе "10" означает два? 
+1) Десятичной 2) Двоичной 3) Восьмеричной 4) Шестнадцатеричной </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"10" в любой системе равно её основанию. В двоичной основание 2. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимальное основание для цифр 0,1,2,3? 
+1) 3 2) 4 3) 5 4) 10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основание ≥ (макс. цифра + 1). Здесь макс. цифра = 3. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чему равно 11₈ в десятичной? 
+1) 9 2) 11 3) 17 4) 19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11₈ = 1×8 + 1 = 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Число 5 в двоичной системе: 
+1) 101 2) 10 3) 111 4) 100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 = 4 + 1 = 2² + 2⁰ → 101 </t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;Неверное утверждение:&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;1) В двоичной основание 2&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;2) В десятичной макс. цифра 9&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;3) Все системы имеют 0&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;4) Основание &amp;gt; любой цифры&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Исторические системы (например, римская) не имели нуля. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какое число следует за 14 в системе с цифрами 0-4? 
+1) 15 2) 20 3) 21 4) 10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основание = 5. После 14₅ → 20₅ (как после 9 → 10 в десятичной). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Макс. однозначное в семеричной: 
+1) 7 2) 6 3) 10 4) 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Семиричные цифры: 0-6. Максимум - 6. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Число 7 в троичной: 
+1) 10 2) 21 3) 17 4) 20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 = 2×3 + 1 → 21₃ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10₂ + 10₈ в десятичной: 
+1) 10 2) 20 3) 22 4) 18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10₂ = 2; 10₈ = 8; 2 + 8 = 10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В какой системе 3×3=11? 
+1) Десятичной 2) Двоичной 3) Восьмеричной 4) Девятеричной </t>
+  </si>
+  <si>
+    <t>11ₓ = x + 1. Уравнение: 3×3 = x + 1 → x = 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В системе с основанием 1 невозможно выразить разные числа (только один символ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какое число следует за 222₃? 
+1) 223 2) 1000 3) 1111 4) 221 </t>
+  </si>
+  <si>
+    <t>Аналогично переходу от 999 к 1000 в десятичной системе </t>
+  </si>
+  <si>
+    <t>2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Почему вавилонская система называлась шестидесятеричной? 
+1) 60 цифр 2) Основание 60 3) 60 символов 4) Изобретена в 60 г. до н.э. </t>
+  </si>
+  <si>
+    <t>Основание = количество уникальных значений разряда </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как записать 6 в системе с основанием 4? 
+1) 10 2) 11 3) 12 4) 13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 = 1×4 + 2 → 12₄ </t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;Почему компьютеры используют двоичную систему?&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;1) Самая простая&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;2) Технически удобно (есть/нет сигнала)&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;3) Решение программистов&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;&lt;span&gt;&lt;span&gt;4) Меньше цифр&lt;/span&gt;&lt;/span&gt;&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Электронные компоненты работают с двумя состояниями (вкл/выкл) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимальное трёхзначное в пятеричной системе: 
+1) 555 2) 444 3) 124 4) 999 </t>
+  </si>
+  <si>
+    <t>Макс. цифра в пятеричной системе - 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чему равно 24₅ в десятичной? 
+1) 10 2) 14 3) 24 4) 100 </t>
+  </si>
+  <si>
+    <t>24₅ = 2×5 + 4 = 14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В какой системе 10 + 10 = 100? 
+1) Десятичная 2) Двоичная 3) Троичная 4) Всех </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В двоичной: 10₂=2, 100₂=4 → 2+2=4 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -416,6 +618,12 @@
       <name val="Cambria Math"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -717,63 +925,63 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -784,6 +992,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1140,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C269DD70-9130-42DB-AB6D-74839CBD159E}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1151,28 +1369,28 @@
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="89.33203125" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" customWidth="1"/>
+    <col min="4" max="4" width="89.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" style="10" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1186,13 +1404,13 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>2315</v>
       </c>
     </row>
@@ -1206,10 +1424,10 @@
       <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="2">
@@ -1226,7 +1444,7 @@
       <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1246,7 +1464,7 @@
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1266,7 +1484,7 @@
       <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1286,7 +1504,7 @@
       <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1306,7 +1524,7 @@
       <c r="C8" s="2">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1326,7 +1544,7 @@
       <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="12" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1346,7 +1564,7 @@
       <c r="C10" s="2">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1366,7 +1584,7 @@
       <c r="C11" s="2">
         <v>10</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1386,7 +1604,7 @@
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1406,7 +1624,7 @@
       <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1426,7 +1644,7 @@
       <c r="C14" s="2">
         <v>3</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1446,7 +1664,7 @@
       <c r="C15" s="2">
         <v>4</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="12" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1486,7 +1704,7 @@
       <c r="C17" s="2">
         <v>6</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1506,7 +1724,7 @@
       <c r="C18" s="2">
         <v>7</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1516,7 +1734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="255">
+    <row r="19" spans="1:6" ht="238">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -1526,10 +1744,10 @@
       <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="2">
@@ -1546,10 +1764,10 @@
       <c r="C20" s="2">
         <v>2</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F20" s="2">
@@ -1566,7 +1784,7 @@
       <c r="C21" s="2">
         <v>3</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1576,13 +1794,585 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+    <row r="22" spans="1:6" ht="119">
+      <c r="A22" s="2">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="96">
+      <c r="A23" s="8">
+        <v>2</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="102">
+      <c r="A24" s="8">
+        <v>2</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8">
+        <v>3</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="119">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17">
+      <c r="A26" s="8">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8">
+        <v>5</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="51">
+      <c r="A27" s="8">
+        <v>2</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <v>6</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="96">
+      <c r="A28" s="2">
+        <v>2</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>7</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="34">
+      <c r="A29" s="8">
+        <v>2</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8">
+        <v>8</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="102">
+      <c r="A30" s="8">
+        <v>2</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8">
+        <v>9</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="102">
+      <c r="A31" s="2">
+        <v>2</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="51">
+      <c r="A32" s="8">
+        <v>2</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="48">
+      <c r="A33" s="8">
+        <v>2</v>
+      </c>
+      <c r="B33" s="8">
+        <v>2</v>
+      </c>
+      <c r="C33" s="8">
+        <v>2</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="48">
+      <c r="A34" s="2">
+        <v>2</v>
+      </c>
+      <c r="B34" s="8">
+        <v>2</v>
+      </c>
+      <c r="C34" s="8">
+        <v>3</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="48">
+      <c r="A35" s="8">
+        <v>2</v>
+      </c>
+      <c r="B35" s="8">
+        <v>2</v>
+      </c>
+      <c r="C35" s="8">
+        <v>4</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="96">
+      <c r="A36" s="8">
+        <v>2</v>
+      </c>
+      <c r="B36" s="8">
+        <v>2</v>
+      </c>
+      <c r="C36" s="8">
+        <v>5</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="48">
+      <c r="A37" s="8">
+        <v>2</v>
+      </c>
+      <c r="B37" s="8">
+        <v>2</v>
+      </c>
+      <c r="C37" s="8">
+        <v>6</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="48">
+      <c r="A38" s="2">
+        <v>2</v>
+      </c>
+      <c r="B38" s="8">
+        <v>2</v>
+      </c>
+      <c r="C38" s="8">
+        <v>7</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="48">
+      <c r="A39" s="8">
+        <v>2</v>
+      </c>
+      <c r="B39" s="8">
+        <v>2</v>
+      </c>
+      <c r="C39" s="8">
+        <v>8</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="48">
+      <c r="A40" s="8">
+        <v>2</v>
+      </c>
+      <c r="B40" s="8">
+        <v>2</v>
+      </c>
+      <c r="C40" s="8">
+        <v>9</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="48">
+      <c r="A41" s="8">
+        <v>2</v>
+      </c>
+      <c r="B41" s="8">
+        <v>2</v>
+      </c>
+      <c r="C41" s="8">
+        <v>10</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="160">
+      <c r="A42" s="8">
+        <v>2</v>
+      </c>
+      <c r="B42" s="8">
+        <v>3</v>
+      </c>
+      <c r="C42" s="8">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="96">
+      <c r="A43" s="8">
+        <v>2</v>
+      </c>
+      <c r="B43" s="8">
+        <v>3</v>
+      </c>
+      <c r="C43" s="8">
+        <v>2</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="48">
+      <c r="A44" s="8">
+        <v>2</v>
+      </c>
+      <c r="B44" s="8">
+        <v>3</v>
+      </c>
+      <c r="C44" s="8">
+        <v>3</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="48">
+      <c r="A45" s="8">
+        <v>2</v>
+      </c>
+      <c r="B45" s="8">
+        <v>3</v>
+      </c>
+      <c r="C45" s="8">
+        <v>4</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="48">
+      <c r="A46" s="8">
+        <v>2</v>
+      </c>
+      <c r="B46" s="8">
+        <v>3</v>
+      </c>
+      <c r="C46" s="8">
+        <v>5</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="96">
+      <c r="A47" s="8">
+        <v>2</v>
+      </c>
+      <c r="B47" s="8">
+        <v>3</v>
+      </c>
+      <c r="C47" s="8">
+        <v>6</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="48">
+      <c r="A48" s="8">
+        <v>2</v>
+      </c>
+      <c r="B48" s="8">
+        <v>3</v>
+      </c>
+      <c r="C48" s="8">
+        <v>7</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="48">
+      <c r="A49" s="8">
+        <v>2</v>
+      </c>
+      <c r="B49" s="8">
+        <v>3</v>
+      </c>
+      <c r="C49" s="8">
+        <v>8</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="48">
+      <c r="A50" s="8">
+        <v>2</v>
+      </c>
+      <c r="B50" s="8">
+        <v>3</v>
+      </c>
+      <c r="C50" s="8">
+        <v>9</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" s="8">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/sources/exercises.xlsx
+++ b/src/sources/exercises.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roman/Documents/projects/physics/src/sources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Илья\Documents\physics\src\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF039324-B56D-5A46-886D-1CD1CD67EDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2A40C0-7A6D-494E-9F90-1EEC4AD972BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{B3789CC9-61E8-47BE-93CC-76E693329D75}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3789CC9-61E8-47BE-93CC-76E693329D75}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <r>
       <t xml:space="preserve">Множество </t>
@@ -400,6 +399,15 @@
   </si>
   <si>
     <t xml:space="preserve">В двоичной: 10₂=2, 100₂=4 → 2+2=4 </t>
+  </si>
+  <si>
+    <t>Хуй пизда сковорода</t>
+  </si>
+  <si>
+    <t>Она самая</t>
+  </si>
+  <si>
+    <t>хуй</t>
   </si>
 </sst>
 </file>
@@ -1358,23 +1366,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C269DD70-9130-42DB-AB6D-74839CBD159E}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="89.33203125" style="10" customWidth="1"/>
     <col min="5" max="5" width="49.33203125" style="10" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17">
+    <row r="1" spans="1:6" ht="15.6">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -1394,7 +1402,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" customHeight="1">
+    <row r="2" spans="1:6" ht="16.95" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1414,7 +1422,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="255">
+    <row r="3" spans="1:6" ht="285">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1434,7 +1442,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="170">
+    <row r="4" spans="1:6" ht="210">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1454,7 +1462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="170">
+    <row r="5" spans="1:6" ht="210">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1474,7 +1482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="34">
+    <row r="6" spans="1:6" ht="31.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1494,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="204">
+    <row r="7" spans="1:6" ht="225">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1514,7 +1522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="170">
+    <row r="8" spans="1:6" ht="195">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1534,7 +1542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="170">
+    <row r="9" spans="1:6" ht="180">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -1554,7 +1562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="221">
+    <row r="10" spans="1:6" ht="225">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -1574,7 +1582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17">
+    <row r="11" spans="1:6" ht="31.2">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -1594,7 +1602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="170">
+    <row r="12" spans="1:6" ht="180">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -1614,7 +1622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="170">
+    <row r="13" spans="1:6" ht="165">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -1634,7 +1642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="238">
+    <row r="14" spans="1:6" ht="270">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -1654,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="238">
+    <row r="15" spans="1:6" ht="255">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -1674,7 +1682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -1694,7 +1702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="272">
+    <row r="17" spans="1:6" ht="255">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -1714,7 +1722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="238">
+    <row r="18" spans="1:6" ht="285">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -1734,7 +1742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="238">
+    <row r="19" spans="1:6" ht="240">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -1754,7 +1762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="136">
+    <row r="20" spans="1:6" ht="165">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -1774,7 +1782,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="170">
+    <row r="21" spans="1:6" ht="180">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -1794,7 +1802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="119">
+    <row r="22" spans="1:6" ht="109.2">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -1814,7 +1822,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="96">
+    <row r="23" spans="1:6" ht="100.8">
       <c r="A23" s="8">
         <v>2</v>
       </c>
@@ -1834,7 +1842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="102">
+    <row r="24" spans="1:6" ht="120">
       <c r="A24" s="8">
         <v>2</v>
       </c>
@@ -1854,7 +1862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="119">
+    <row r="25" spans="1:6" ht="135">
       <c r="A25" s="2">
         <v>2</v>
       </c>
@@ -1874,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="8">
         <v>2</v>
       </c>
@@ -1894,7 +1902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="51">
+    <row r="27" spans="1:6" ht="45">
       <c r="A27" s="8">
         <v>2</v>
       </c>
@@ -1914,7 +1922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="96">
+    <row r="28" spans="1:6" ht="86.4">
       <c r="A28" s="2">
         <v>2</v>
       </c>
@@ -1934,7 +1942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="34">
+    <row r="29" spans="1:6" ht="31.2">
       <c r="A29" s="8">
         <v>2</v>
       </c>
@@ -1954,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="102">
+    <row r="30" spans="1:6" ht="135">
       <c r="A30" s="8">
         <v>2</v>
       </c>
@@ -1974,7 +1982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="102">
+    <row r="31" spans="1:6" ht="135">
       <c r="A31" s="2">
         <v>2</v>
       </c>
@@ -1994,7 +2002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="51">
+    <row r="32" spans="1:6" ht="45">
       <c r="A32" s="8">
         <v>2</v>
       </c>
@@ -2014,7 +2022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="48">
+    <row r="33" spans="1:6" ht="43.2">
       <c r="A33" s="8">
         <v>2</v>
       </c>
@@ -2034,7 +2042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="48">
+    <row r="34" spans="1:6" ht="43.2">
       <c r="A34" s="2">
         <v>2</v>
       </c>
@@ -2054,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="48">
+    <row r="35" spans="1:6" ht="43.2">
       <c r="A35" s="8">
         <v>2</v>
       </c>
@@ -2074,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="96">
+    <row r="36" spans="1:6" ht="86.4">
       <c r="A36" s="8">
         <v>2</v>
       </c>
@@ -2094,7 +2102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="48">
+    <row r="37" spans="1:6" ht="43.2">
       <c r="A37" s="8">
         <v>2</v>
       </c>
@@ -2114,7 +2122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="48">
+    <row r="38" spans="1:6" ht="43.2">
       <c r="A38" s="2">
         <v>2</v>
       </c>
@@ -2134,7 +2142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="48">
+    <row r="39" spans="1:6" ht="43.2">
       <c r="A39" s="8">
         <v>2</v>
       </c>
@@ -2154,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="48">
+    <row r="40" spans="1:6" ht="43.2">
       <c r="A40" s="8">
         <v>2</v>
       </c>
@@ -2174,7 +2182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="48">
+    <row r="41" spans="1:6" ht="43.2">
       <c r="A41" s="8">
         <v>2</v>
       </c>
@@ -2194,7 +2202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="160">
+    <row r="42" spans="1:6" ht="144">
       <c r="A42" s="8">
         <v>2</v>
       </c>
@@ -2214,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="96">
+    <row r="43" spans="1:6" ht="86.4">
       <c r="A43" s="8">
         <v>2</v>
       </c>
@@ -2234,7 +2242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="48">
+    <row r="44" spans="1:6" ht="43.2">
       <c r="A44" s="8">
         <v>2</v>
       </c>
@@ -2254,7 +2262,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="48">
+    <row r="45" spans="1:6" ht="43.2">
       <c r="A45" s="8">
         <v>2</v>
       </c>
@@ -2274,7 +2282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="48">
+    <row r="46" spans="1:6" ht="43.2">
       <c r="A46" s="8">
         <v>2</v>
       </c>
@@ -2294,7 +2302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="96">
+    <row r="47" spans="1:6" ht="86.4">
       <c r="A47" s="8">
         <v>2</v>
       </c>
@@ -2314,7 +2322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="48">
+    <row r="48" spans="1:6" ht="43.2">
       <c r="A48" s="8">
         <v>2</v>
       </c>
@@ -2334,7 +2342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="48">
+    <row r="49" spans="1:6" ht="43.2">
       <c r="A49" s="8">
         <v>2</v>
       </c>
@@ -2354,7 +2362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="48">
+    <row r="50" spans="1:6" ht="43.2">
       <c r="A50" s="8">
         <v>2</v>
       </c>
@@ -2372,6 +2380,26 @@
       </c>
       <c r="F50" s="8">
         <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.6">
+      <c r="A51" s="8">
+        <v>2</v>
+      </c>
+      <c r="B51" s="8">
+        <v>1</v>
+      </c>
+      <c r="C51" s="8">
+        <v>11</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/src/sources/exercises.xlsx
+++ b/src/sources/exercises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Илья\Documents\physics\src\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2A40C0-7A6D-494E-9F90-1EEC4AD972BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1287EF6D-B770-4B3C-8A8F-D7D0BC4C04A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3789CC9-61E8-47BE-93CC-76E693329D75}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
   <si>
     <r>
       <t xml:space="preserve">Множество </t>
@@ -408,6 +408,12 @@
   </si>
   <si>
     <t>хуй</t>
+  </si>
+  <si>
+    <t>img.2</t>
+  </si>
+  <si>
+    <t>Пиздец молодец</t>
   </si>
 </sst>
 </file>
@@ -1366,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C269DD70-9130-42DB-AB6D-74839CBD159E}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1402,64 +1408,64 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.95" customHeight="1">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
+    <row r="2" spans="1:6" ht="15.6">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.95" customHeight="1">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F3" s="4">
         <v>2315</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="285">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="12" t="s">
+    <row r="4" spans="1:6" ht="285">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="2">
         <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="210">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="210">
@@ -1470,99 +1476,99 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="210">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="31.2">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.2">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="225">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="225">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="195">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="195">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
         <v>7</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="180">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>8</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="F9" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="225">
+    <row r="10" spans="1:6" ht="180">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -1570,596 +1576,596 @@
         <v>1</v>
       </c>
       <c r="C10" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="225">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
         <v>9</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="31.2">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="31.2">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F12" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="180">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="12" t="s">
+    <row r="13" spans="1:6" ht="180">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="165">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="165">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="270">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="270">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="255">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="255">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
         <v>4</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.6">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
         <v>5</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="255">
-      <c r="A17" s="2">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="255">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
         <v>6</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D18" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="285">
-      <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="285">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
         <v>7</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="240">
-      <c r="A19" s="2">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2">
-        <v>3</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="240">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="165">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="165">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F21" s="2">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="180">
-      <c r="A21" s="2">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2">
-        <v>3</v>
-      </c>
-      <c r="D21" s="12" t="s">
+    <row r="22" spans="1:6" ht="180">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="109.2">
-      <c r="A22" s="2">
-        <v>2</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="109.2">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F23" s="2">
         <v>1423</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="100.8">
-      <c r="A23" s="8">
-        <v>2</v>
-      </c>
-      <c r="B23" s="8">
-        <v>1</v>
-      </c>
-      <c r="C23" s="8">
-        <v>2</v>
-      </c>
-      <c r="D23" s="10" t="s">
+    <row r="24" spans="1:6" ht="100.8">
+      <c r="A24" s="8">
+        <v>2</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="120">
-      <c r="A24" s="8">
-        <v>2</v>
-      </c>
-      <c r="B24" s="8">
-        <v>1</v>
-      </c>
-      <c r="C24" s="8">
-        <v>3</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="F24" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="120">
+      <c r="A25" s="8">
+        <v>2</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
+        <v>3</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="135">
-      <c r="A25" s="2">
-        <v>2</v>
-      </c>
-      <c r="B25" s="8">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="F25" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="135">
+      <c r="A26" s="2">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
         <v>4</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D26" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.6">
-      <c r="A26" s="8">
-        <v>2</v>
-      </c>
-      <c r="B26" s="8">
-        <v>1</v>
-      </c>
-      <c r="C26" s="8">
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6">
+      <c r="A27" s="8">
+        <v>2</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
         <v>5</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D27" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E27" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="45">
-      <c r="A27" s="8">
-        <v>2</v>
-      </c>
-      <c r="B27" s="8">
-        <v>1</v>
-      </c>
-      <c r="C27" s="8">
+      <c r="F27" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45">
+      <c r="A28" s="8">
+        <v>2</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8">
         <v>6</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D28" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="86.4">
-      <c r="A28" s="2">
-        <v>2</v>
-      </c>
-      <c r="B28" s="8">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="F28" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="86.4">
+      <c r="A29" s="2">
+        <v>2</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
         <v>7</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D29" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="31.2">
-      <c r="A29" s="8">
-        <v>2</v>
-      </c>
-      <c r="B29" s="8">
-        <v>1</v>
-      </c>
-      <c r="C29" s="8">
+      <c r="F29" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="31.2">
+      <c r="A30" s="8">
+        <v>2</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8">
         <v>8</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E30" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="135">
-      <c r="A30" s="8">
-        <v>2</v>
-      </c>
-      <c r="B30" s="8">
-        <v>1</v>
-      </c>
-      <c r="C30" s="8">
+      <c r="F30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="135">
+      <c r="A31" s="8">
+        <v>2</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
         <v>9</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D31" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E31" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F31" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="135">
-      <c r="A31" s="2">
-        <v>2</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2">
+    <row r="32" spans="1:6" ht="135">
+      <c r="A32" s="2">
+        <v>2</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
         <v>10</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E32" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="45">
-      <c r="A32" s="8">
-        <v>2</v>
-      </c>
-      <c r="B32" s="8">
-        <v>2</v>
-      </c>
-      <c r="C32" s="8">
-        <v>1</v>
-      </c>
-      <c r="D32" s="12" t="s">
+      <c r="F32" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="45">
+      <c r="A33" s="8">
+        <v>2</v>
+      </c>
+      <c r="B33" s="8">
+        <v>2</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="43.2">
-      <c r="A33" s="8">
-        <v>2</v>
-      </c>
-      <c r="B33" s="8">
-        <v>2</v>
-      </c>
-      <c r="C33" s="8">
-        <v>2</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="F33" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="43.2">
+      <c r="A34" s="8">
+        <v>2</v>
+      </c>
+      <c r="B34" s="8">
+        <v>2</v>
+      </c>
+      <c r="C34" s="8">
+        <v>2</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E34" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="43.2">
-      <c r="A34" s="2">
-        <v>2</v>
-      </c>
-      <c r="B34" s="8">
-        <v>2</v>
-      </c>
-      <c r="C34" s="8">
-        <v>3</v>
-      </c>
-      <c r="D34" s="10" t="s">
+      <c r="F34" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="43.2">
+      <c r="A35" s="2">
+        <v>2</v>
+      </c>
+      <c r="B35" s="8">
+        <v>2</v>
+      </c>
+      <c r="C35" s="8">
+        <v>3</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E35" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="43.2">
-      <c r="A35" s="8">
-        <v>2</v>
-      </c>
-      <c r="B35" s="8">
-        <v>2</v>
-      </c>
-      <c r="C35" s="8">
+      <c r="F35" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="43.2">
+      <c r="A36" s="8">
+        <v>2</v>
+      </c>
+      <c r="B36" s="8">
+        <v>2</v>
+      </c>
+      <c r="C36" s="8">
         <v>4</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D36" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E36" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="86.4">
-      <c r="A36" s="8">
-        <v>2</v>
-      </c>
-      <c r="B36" s="8">
-        <v>2</v>
-      </c>
-      <c r="C36" s="8">
+      <c r="F36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="86.4">
+      <c r="A37" s="8">
+        <v>2</v>
+      </c>
+      <c r="B37" s="8">
+        <v>2</v>
+      </c>
+      <c r="C37" s="8">
         <v>5</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E37" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="43.2">
-      <c r="A37" s="8">
-        <v>2</v>
-      </c>
-      <c r="B37" s="8">
-        <v>2</v>
-      </c>
-      <c r="C37" s="8">
+      <c r="F37" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="43.2">
+      <c r="A38" s="8">
+        <v>2</v>
+      </c>
+      <c r="B38" s="8">
+        <v>2</v>
+      </c>
+      <c r="C38" s="8">
         <v>6</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D38" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E38" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="43.2">
-      <c r="A38" s="2">
-        <v>2</v>
-      </c>
-      <c r="B38" s="8">
-        <v>2</v>
-      </c>
-      <c r="C38" s="8">
+      <c r="F38" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="43.2">
+      <c r="A39" s="2">
+        <v>2</v>
+      </c>
+      <c r="B39" s="8">
+        <v>2</v>
+      </c>
+      <c r="C39" s="8">
         <v>7</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D39" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E39" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F38" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="43.2">
-      <c r="A39" s="8">
-        <v>2</v>
-      </c>
-      <c r="B39" s="8">
-        <v>2</v>
-      </c>
-      <c r="C39" s="8">
-        <v>8</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="F39" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="43.2">
@@ -2170,16 +2176,16 @@
         <v>2</v>
       </c>
       <c r="C40" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F40" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="43.2">
@@ -2190,76 +2196,76 @@
         <v>2</v>
       </c>
       <c r="C41" s="8">
+        <v>9</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="43.2">
+      <c r="A42" s="8">
+        <v>2</v>
+      </c>
+      <c r="B42" s="8">
+        <v>2</v>
+      </c>
+      <c r="C42" s="8">
         <v>10</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D42" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E42" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="144">
-      <c r="A42" s="8">
-        <v>2</v>
-      </c>
-      <c r="B42" s="8">
-        <v>3</v>
-      </c>
-      <c r="C42" s="8">
-        <v>1</v>
-      </c>
-      <c r="D42" s="10" t="s">
+      <c r="F42" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="144">
+      <c r="A43" s="8">
+        <v>2</v>
+      </c>
+      <c r="B43" s="8">
+        <v>3</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E43" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F42" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="86.4">
-      <c r="A43" s="8">
-        <v>2</v>
-      </c>
-      <c r="B43" s="8">
-        <v>3</v>
-      </c>
-      <c r="C43" s="8">
-        <v>2</v>
-      </c>
-      <c r="D43" s="10" t="s">
+      <c r="F43" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="86.4">
+      <c r="A44" s="8">
+        <v>2</v>
+      </c>
+      <c r="B44" s="8">
+        <v>3</v>
+      </c>
+      <c r="C44" s="8">
+        <v>2</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="43.2">
-      <c r="A44" s="8">
-        <v>2</v>
-      </c>
-      <c r="B44" s="8">
-        <v>3</v>
-      </c>
-      <c r="C44" s="8">
-        <v>3</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>91</v>
+      <c r="F44" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="43.2">
@@ -2270,16 +2276,16 @@
         <v>3</v>
       </c>
       <c r="C45" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F45" s="8">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="43.2">
@@ -2290,53 +2296,53 @@
         <v>3</v>
       </c>
       <c r="C46" s="8">
+        <v>4</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="43.2">
+      <c r="A47" s="8">
+        <v>2</v>
+      </c>
+      <c r="B47" s="8">
+        <v>3</v>
+      </c>
+      <c r="C47" s="8">
         <v>5</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D47" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E47" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F46" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="86.4">
-      <c r="A47" s="8">
-        <v>2</v>
-      </c>
-      <c r="B47" s="8">
-        <v>3</v>
-      </c>
-      <c r="C47" s="8">
+      <c r="F47" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="86.4">
+      <c r="A48" s="8">
+        <v>2</v>
+      </c>
+      <c r="B48" s="8">
+        <v>3</v>
+      </c>
+      <c r="C48" s="8">
         <v>6</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D48" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E48" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="F47" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="43.2">
-      <c r="A48" s="8">
-        <v>2</v>
-      </c>
-      <c r="B48" s="8">
-        <v>3</v>
-      </c>
-      <c r="C48" s="8">
-        <v>7</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="F48" s="8">
         <v>2</v>
@@ -2350,13 +2356,13 @@
         <v>3</v>
       </c>
       <c r="C49" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F49" s="8">
         <v>2</v>
@@ -2370,35 +2376,55 @@
         <v>3</v>
       </c>
       <c r="C50" s="8">
+        <v>8</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="43.2">
+      <c r="A51" s="8">
+        <v>2</v>
+      </c>
+      <c r="B51" s="8">
+        <v>3</v>
+      </c>
+      <c r="C51" s="8">
         <v>9</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D51" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E51" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F50" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.6">
-      <c r="A51" s="8">
-        <v>2</v>
-      </c>
-      <c r="B51" s="8">
-        <v>1</v>
-      </c>
-      <c r="C51" s="8">
+      <c r="F51" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.6">
+      <c r="A52" s="8">
+        <v>2</v>
+      </c>
+      <c r="B52" s="8">
+        <v>1</v>
+      </c>
+      <c r="C52" s="8">
         <v>11</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D52" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E52" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F52" t="s">
         <v>106</v>
       </c>
     </row>

--- a/src/sources/exercises.xlsx
+++ b/src/sources/exercises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Илья\Documents\physics\src\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1287EF6D-B770-4B3C-8A8F-D7D0BC4C04A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1391D2B-E1A4-4ADA-82D3-19588E1CE9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3789CC9-61E8-47BE-93CC-76E693329D75}"/>
   </bookViews>
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>107</v>

--- a/src/sources/exercises.xlsx
+++ b/src/sources/exercises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Илья\Documents\physics\src\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1391D2B-E1A4-4ADA-82D3-19588E1CE9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B97CBCA-E311-4F0B-87CE-E1A4E0DE65CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3789CC9-61E8-47BE-93CC-76E693329D75}"/>
   </bookViews>
@@ -410,10 +410,10 @@
     <t>хуй</t>
   </si>
   <si>
-    <t>img.2</t>
-  </si>
-  <si>
     <t>Пиздец молодец</t>
+  </si>
+  <si>
+    <t>img.1.1.1.11</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1419,10 +1419,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="F2" s="7">
         <v>5</v>

--- a/src/sources/exercises.xlsx
+++ b/src/sources/exercises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Илья\Documents\physics\src\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B97CBCA-E311-4F0B-87CE-E1A4E0DE65CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A67123-72FF-47A4-817B-E2D0463246D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3789CC9-61E8-47BE-93CC-76E693329D75}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
   <si>
     <r>
       <t xml:space="preserve">Множество </t>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>img.1.1.1.11</t>
+  </si>
+  <si>
+    <t>img.1.1.1.12</t>
   </si>
 </sst>
 </file>
@@ -1372,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C269DD70-9130-42DB-AB6D-74839CBD159E}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1416,10 +1419,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>107</v>
@@ -1428,64 +1431,64 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.95" customHeight="1">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
+    <row r="3" spans="1:6" ht="15.6">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.95" customHeight="1">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F4" s="4">
         <v>2315</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="285">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="12" t="s">
+    <row r="5" spans="1:6" ht="285">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="210">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="210">
@@ -1496,99 +1499,99 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="210">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="31.2">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.2">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="225">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="225">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
         <v>6</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="195">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="195">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
         <v>7</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="180">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>8</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="F10" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="225">
+    <row r="11" spans="1:6" ht="180">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -1596,596 +1599,596 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
+        <v>8</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="225">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
         <v>9</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="31.2">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31.2">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="180">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="12" t="s">
+    <row r="14" spans="1:6" ht="180">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="165">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="165">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="270">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>3</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="270">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="255">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="255">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
         <v>4</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.6">
-      <c r="A17" s="2">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
         <v>5</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="255">
-      <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="255">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
         <v>6</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="285">
-      <c r="A19" s="2">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="285">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2">
         <v>7</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="240">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="240">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="165">
-      <c r="A21" s="2">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="165">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F22" s="2">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="180">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2">
-        <v>3</v>
-      </c>
-      <c r="D22" s="12" t="s">
+    <row r="23" spans="1:6" ht="180">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="109.2">
-      <c r="A23" s="2">
-        <v>2</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="109.2">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F24" s="2">
         <v>1423</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="100.8">
-      <c r="A24" s="8">
-        <v>2</v>
-      </c>
-      <c r="B24" s="8">
-        <v>1</v>
-      </c>
-      <c r="C24" s="8">
-        <v>2</v>
-      </c>
-      <c r="D24" s="10" t="s">
+    <row r="25" spans="1:6" ht="100.8">
+      <c r="A25" s="8">
+        <v>2</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="120">
-      <c r="A25" s="8">
-        <v>2</v>
-      </c>
-      <c r="B25" s="8">
-        <v>1</v>
-      </c>
-      <c r="C25" s="8">
-        <v>3</v>
-      </c>
-      <c r="D25" s="12" t="s">
+      <c r="F25" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="120">
+      <c r="A26" s="8">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8">
+        <v>3</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="135">
-      <c r="A26" s="2">
-        <v>2</v>
-      </c>
-      <c r="B26" s="8">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="F26" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="135">
+      <c r="A27" s="2">
+        <v>2</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
         <v>4</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D27" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.6">
-      <c r="A27" s="8">
-        <v>2</v>
-      </c>
-      <c r="B27" s="8">
-        <v>1</v>
-      </c>
-      <c r="C27" s="8">
+      <c r="F27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6">
+      <c r="A28" s="8">
+        <v>2</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8">
         <v>5</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D28" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="45">
-      <c r="A28" s="8">
-        <v>2</v>
-      </c>
-      <c r="B28" s="8">
-        <v>1</v>
-      </c>
-      <c r="C28" s="8">
+      <c r="F28" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="45">
+      <c r="A29" s="8">
+        <v>2</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8">
         <v>6</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="86.4">
-      <c r="A29" s="2">
-        <v>2</v>
-      </c>
-      <c r="B29" s="8">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="F29" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="86.4">
+      <c r="A30" s="2">
+        <v>2</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
         <v>7</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E30" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="31.2">
-      <c r="A30" s="8">
-        <v>2</v>
-      </c>
-      <c r="B30" s="8">
-        <v>1</v>
-      </c>
-      <c r="C30" s="8">
+      <c r="F30" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="31.2">
+      <c r="A31" s="8">
+        <v>2</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
         <v>8</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D31" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E31" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="135">
-      <c r="A31" s="8">
-        <v>2</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1</v>
-      </c>
-      <c r="C31" s="8">
+      <c r="F31" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="135">
+      <c r="A32" s="8">
+        <v>2</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8">
         <v>9</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E32" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F32" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="135">
-      <c r="A32" s="2">
-        <v>2</v>
-      </c>
-      <c r="B32" s="8">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2">
+    <row r="33" spans="1:6" ht="135">
+      <c r="A33" s="2">
+        <v>2</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
         <v>10</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D33" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="45">
-      <c r="A33" s="8">
-        <v>2</v>
-      </c>
-      <c r="B33" s="8">
-        <v>2</v>
-      </c>
-      <c r="C33" s="8">
-        <v>1</v>
-      </c>
-      <c r="D33" s="12" t="s">
+      <c r="F33" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="45">
+      <c r="A34" s="8">
+        <v>2</v>
+      </c>
+      <c r="B34" s="8">
+        <v>2</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E34" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="43.2">
-      <c r="A34" s="8">
-        <v>2</v>
-      </c>
-      <c r="B34" s="8">
-        <v>2</v>
-      </c>
-      <c r="C34" s="8">
-        <v>2</v>
-      </c>
-      <c r="D34" s="10" t="s">
+      <c r="F34" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="43.2">
+      <c r="A35" s="8">
+        <v>2</v>
+      </c>
+      <c r="B35" s="8">
+        <v>2</v>
+      </c>
+      <c r="C35" s="8">
+        <v>2</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E35" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="43.2">
-      <c r="A35" s="2">
-        <v>2</v>
-      </c>
-      <c r="B35" s="8">
-        <v>2</v>
-      </c>
-      <c r="C35" s="8">
-        <v>3</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="F35" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="43.2">
+      <c r="A36" s="2">
+        <v>2</v>
+      </c>
+      <c r="B36" s="8">
+        <v>2</v>
+      </c>
+      <c r="C36" s="8">
+        <v>3</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E36" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="43.2">
-      <c r="A36" s="8">
-        <v>2</v>
-      </c>
-      <c r="B36" s="8">
-        <v>2</v>
-      </c>
-      <c r="C36" s="8">
+      <c r="F36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="43.2">
+      <c r="A37" s="8">
+        <v>2</v>
+      </c>
+      <c r="B37" s="8">
+        <v>2</v>
+      </c>
+      <c r="C37" s="8">
         <v>4</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E37" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="86.4">
-      <c r="A37" s="8">
-        <v>2</v>
-      </c>
-      <c r="B37" s="8">
-        <v>2</v>
-      </c>
-      <c r="C37" s="8">
+      <c r="F37" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="86.4">
+      <c r="A38" s="8">
+        <v>2</v>
+      </c>
+      <c r="B38" s="8">
+        <v>2</v>
+      </c>
+      <c r="C38" s="8">
         <v>5</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D38" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E38" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="43.2">
-      <c r="A38" s="8">
-        <v>2</v>
-      </c>
-      <c r="B38" s="8">
-        <v>2</v>
-      </c>
-      <c r="C38" s="8">
+      <c r="F38" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="43.2">
+      <c r="A39" s="8">
+        <v>2</v>
+      </c>
+      <c r="B39" s="8">
+        <v>2</v>
+      </c>
+      <c r="C39" s="8">
         <v>6</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D39" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E39" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="43.2">
-      <c r="A39" s="2">
-        <v>2</v>
-      </c>
-      <c r="B39" s="8">
-        <v>2</v>
-      </c>
-      <c r="C39" s="8">
+      <c r="F39" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="43.2">
+      <c r="A40" s="2">
+        <v>2</v>
+      </c>
+      <c r="B40" s="8">
+        <v>2</v>
+      </c>
+      <c r="C40" s="8">
         <v>7</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D40" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E40" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F39" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="43.2">
-      <c r="A40" s="8">
-        <v>2</v>
-      </c>
-      <c r="B40" s="8">
-        <v>2</v>
-      </c>
-      <c r="C40" s="8">
-        <v>8</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="F40" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="43.2">
@@ -2196,16 +2199,16 @@
         <v>2</v>
       </c>
       <c r="C41" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F41" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="43.2">
@@ -2216,76 +2219,76 @@
         <v>2</v>
       </c>
       <c r="C42" s="8">
+        <v>9</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="43.2">
+      <c r="A43" s="8">
+        <v>2</v>
+      </c>
+      <c r="B43" s="8">
+        <v>2</v>
+      </c>
+      <c r="C43" s="8">
         <v>10</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D43" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E43" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F42" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="144">
-      <c r="A43" s="8">
-        <v>2</v>
-      </c>
-      <c r="B43" s="8">
-        <v>3</v>
-      </c>
-      <c r="C43" s="8">
-        <v>1</v>
-      </c>
-      <c r="D43" s="10" t="s">
+      <c r="F43" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="144">
+      <c r="A44" s="8">
+        <v>2</v>
+      </c>
+      <c r="B44" s="8">
+        <v>3</v>
+      </c>
+      <c r="C44" s="8">
+        <v>1</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F43" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="86.4">
-      <c r="A44" s="8">
-        <v>2</v>
-      </c>
-      <c r="B44" s="8">
-        <v>3</v>
-      </c>
-      <c r="C44" s="8">
-        <v>2</v>
-      </c>
-      <c r="D44" s="10" t="s">
+      <c r="F44" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="86.4">
+      <c r="A45" s="8">
+        <v>2</v>
+      </c>
+      <c r="B45" s="8">
+        <v>3</v>
+      </c>
+      <c r="C45" s="8">
+        <v>2</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E45" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="43.2">
-      <c r="A45" s="8">
-        <v>2</v>
-      </c>
-      <c r="B45" s="8">
-        <v>3</v>
-      </c>
-      <c r="C45" s="8">
-        <v>3</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>91</v>
+      <c r="F45" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="43.2">
@@ -2296,16 +2299,16 @@
         <v>3</v>
       </c>
       <c r="C46" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="8">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="43.2">
@@ -2316,53 +2319,53 @@
         <v>3</v>
       </c>
       <c r="C47" s="8">
+        <v>4</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="43.2">
+      <c r="A48" s="8">
+        <v>2</v>
+      </c>
+      <c r="B48" s="8">
+        <v>3</v>
+      </c>
+      <c r="C48" s="8">
         <v>5</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D48" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E48" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F47" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="86.4">
-      <c r="A48" s="8">
-        <v>2</v>
-      </c>
-      <c r="B48" s="8">
-        <v>3</v>
-      </c>
-      <c r="C48" s="8">
+      <c r="F48" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="86.4">
+      <c r="A49" s="8">
+        <v>2</v>
+      </c>
+      <c r="B49" s="8">
+        <v>3</v>
+      </c>
+      <c r="C49" s="8">
         <v>6</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D49" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E49" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="F48" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="43.2">
-      <c r="A49" s="8">
-        <v>2</v>
-      </c>
-      <c r="B49" s="8">
-        <v>3</v>
-      </c>
-      <c r="C49" s="8">
-        <v>7</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="F49" s="8">
         <v>2</v>
@@ -2376,13 +2379,13 @@
         <v>3</v>
       </c>
       <c r="C50" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F50" s="8">
         <v>2</v>
@@ -2396,35 +2399,55 @@
         <v>3</v>
       </c>
       <c r="C51" s="8">
+        <v>8</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="43.2">
+      <c r="A52" s="8">
+        <v>2</v>
+      </c>
+      <c r="B52" s="8">
+        <v>3</v>
+      </c>
+      <c r="C52" s="8">
         <v>9</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D52" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E52" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F51" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.6">
-      <c r="A52" s="8">
-        <v>2</v>
-      </c>
-      <c r="B52" s="8">
-        <v>1</v>
-      </c>
-      <c r="C52" s="8">
+      <c r="F52" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.6">
+      <c r="A53" s="8">
+        <v>2</v>
+      </c>
+      <c r="B53" s="8">
+        <v>1</v>
+      </c>
+      <c r="C53" s="8">
         <v>11</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D53" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E53" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F53" t="s">
         <v>106</v>
       </c>
     </row>

--- a/src/sources/exercises.xlsx
+++ b/src/sources/exercises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Илья\Documents\physics\src\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A67123-72FF-47A4-817B-E2D0463246D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03507E74-EF18-4B37-9CEF-6A869B25BE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3789CC9-61E8-47BE-93CC-76E693329D75}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
   <si>
     <r>
       <t xml:space="preserve">Множество </t>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t>img.1.1.1.12</t>
+  </si>
+  <si>
+    <t>img.1.1.1.13</t>
   </si>
 </sst>
 </file>
@@ -1375,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C269DD70-9130-42DB-AB6D-74839CBD159E}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1451,64 +1454,60 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.95" customHeight="1">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="12" t="s">
+    <row r="4" spans="1:6" ht="15.6">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.95" customHeight="1">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F5" s="4">
         <v>2315</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="285">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="12" t="s">
+    <row r="6" spans="1:6" ht="285">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="2">
         <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="210">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="210">
@@ -1519,99 +1518,99 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="210">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="31.2">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31.2">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="225">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="225">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
         <v>6</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="195">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="195">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
         <v>7</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F10" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="180">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>8</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="F11" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="225">
+    <row r="12" spans="1:6" ht="180">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -1619,596 +1618,596 @@
         <v>1</v>
       </c>
       <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="225">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
         <v>9</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="31.2">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="31.2">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
         <v>10</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="180">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12" t="s">
+    <row r="15" spans="1:6" ht="180">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="165">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="165">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="270">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>3</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="270">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="255">
-      <c r="A17" s="2">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="255">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
         <v>4</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.6">
-      <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
         <v>5</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="255">
-      <c r="A19" s="2">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="255">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2">
         <v>6</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="285">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="285">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
         <v>7</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="240">
-      <c r="A21" s="2">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="240">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="165">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="165">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F23" s="2">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="180">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2">
-        <v>3</v>
-      </c>
-      <c r="C23" s="2">
-        <v>3</v>
-      </c>
-      <c r="D23" s="12" t="s">
+    <row r="24" spans="1:6" ht="180">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="109.2">
-      <c r="A24" s="2">
-        <v>2</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="109.2">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F25" s="2">
         <v>1423</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="100.8">
-      <c r="A25" s="8">
-        <v>2</v>
-      </c>
-      <c r="B25" s="8">
-        <v>1</v>
-      </c>
-      <c r="C25" s="8">
-        <v>2</v>
-      </c>
-      <c r="D25" s="10" t="s">
+    <row r="26" spans="1:6" ht="100.8">
+      <c r="A26" s="8">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8">
+        <v>2</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="120">
-      <c r="A26" s="8">
-        <v>2</v>
-      </c>
-      <c r="B26" s="8">
-        <v>1</v>
-      </c>
-      <c r="C26" s="8">
-        <v>3</v>
-      </c>
-      <c r="D26" s="12" t="s">
+      <c r="F26" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="120">
+      <c r="A27" s="8">
+        <v>2</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <v>3</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E27" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="135">
-      <c r="A27" s="2">
-        <v>2</v>
-      </c>
-      <c r="B27" s="8">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="F27" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="135">
+      <c r="A28" s="2">
+        <v>2</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
         <v>4</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D28" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.6">
-      <c r="A28" s="8">
-        <v>2</v>
-      </c>
-      <c r="B28" s="8">
-        <v>1</v>
-      </c>
-      <c r="C28" s="8">
+      <c r="F28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.6">
+      <c r="A29" s="8">
+        <v>2</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8">
         <v>5</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="45">
-      <c r="A29" s="8">
-        <v>2</v>
-      </c>
-      <c r="B29" s="8">
-        <v>1</v>
-      </c>
-      <c r="C29" s="8">
+      <c r="F29" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="45">
+      <c r="A30" s="8">
+        <v>2</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8">
         <v>6</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E30" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="86.4">
-      <c r="A30" s="2">
-        <v>2</v>
-      </c>
-      <c r="B30" s="8">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="F30" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="86.4">
+      <c r="A31" s="2">
+        <v>2</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
         <v>7</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D31" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E31" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="31.2">
-      <c r="A31" s="8">
-        <v>2</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1</v>
-      </c>
-      <c r="C31" s="8">
+      <c r="F31" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="31.2">
+      <c r="A32" s="8">
+        <v>2</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8">
         <v>8</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E32" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="135">
-      <c r="A32" s="8">
-        <v>2</v>
-      </c>
-      <c r="B32" s="8">
-        <v>1</v>
-      </c>
-      <c r="C32" s="8">
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="135">
+      <c r="A33" s="8">
+        <v>2</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8">
         <v>9</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D33" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F33" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="135">
-      <c r="A33" s="2">
-        <v>2</v>
-      </c>
-      <c r="B33" s="8">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2">
+    <row r="34" spans="1:6" ht="135">
+      <c r="A34" s="2">
+        <v>2</v>
+      </c>
+      <c r="B34" s="8">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
         <v>10</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D34" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E34" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="45">
-      <c r="A34" s="8">
-        <v>2</v>
-      </c>
-      <c r="B34" s="8">
-        <v>2</v>
-      </c>
-      <c r="C34" s="8">
-        <v>1</v>
-      </c>
-      <c r="D34" s="12" t="s">
+      <c r="F34" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="45">
+      <c r="A35" s="8">
+        <v>2</v>
+      </c>
+      <c r="B35" s="8">
+        <v>2</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E35" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="43.2">
-      <c r="A35" s="8">
-        <v>2</v>
-      </c>
-      <c r="B35" s="8">
-        <v>2</v>
-      </c>
-      <c r="C35" s="8">
-        <v>2</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="F35" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="43.2">
+      <c r="A36" s="8">
+        <v>2</v>
+      </c>
+      <c r="B36" s="8">
+        <v>2</v>
+      </c>
+      <c r="C36" s="8">
+        <v>2</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E36" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="43.2">
-      <c r="A36" s="2">
-        <v>2</v>
-      </c>
-      <c r="B36" s="8">
-        <v>2</v>
-      </c>
-      <c r="C36" s="8">
-        <v>3</v>
-      </c>
-      <c r="D36" s="10" t="s">
+      <c r="F36" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="43.2">
+      <c r="A37" s="2">
+        <v>2</v>
+      </c>
+      <c r="B37" s="8">
+        <v>2</v>
+      </c>
+      <c r="C37" s="8">
+        <v>3</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E37" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="43.2">
-      <c r="A37" s="8">
-        <v>2</v>
-      </c>
-      <c r="B37" s="8">
-        <v>2</v>
-      </c>
-      <c r="C37" s="8">
+      <c r="F37" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="43.2">
+      <c r="A38" s="8">
+        <v>2</v>
+      </c>
+      <c r="B38" s="8">
+        <v>2</v>
+      </c>
+      <c r="C38" s="8">
         <v>4</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D38" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E38" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="86.4">
-      <c r="A38" s="8">
-        <v>2</v>
-      </c>
-      <c r="B38" s="8">
-        <v>2</v>
-      </c>
-      <c r="C38" s="8">
+      <c r="F38" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="86.4">
+      <c r="A39" s="8">
+        <v>2</v>
+      </c>
+      <c r="B39" s="8">
+        <v>2</v>
+      </c>
+      <c r="C39" s="8">
         <v>5</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D39" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E39" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="43.2">
-      <c r="A39" s="8">
-        <v>2</v>
-      </c>
-      <c r="B39" s="8">
-        <v>2</v>
-      </c>
-      <c r="C39" s="8">
+      <c r="F39" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="43.2">
+      <c r="A40" s="8">
+        <v>2</v>
+      </c>
+      <c r="B40" s="8">
+        <v>2</v>
+      </c>
+      <c r="C40" s="8">
         <v>6</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D40" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E40" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F39" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="43.2">
-      <c r="A40" s="2">
-        <v>2</v>
-      </c>
-      <c r="B40" s="8">
-        <v>2</v>
-      </c>
-      <c r="C40" s="8">
+      <c r="F40" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="43.2">
+      <c r="A41" s="2">
+        <v>2</v>
+      </c>
+      <c r="B41" s="8">
+        <v>2</v>
+      </c>
+      <c r="C41" s="8">
         <v>7</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D41" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E41" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="43.2">
-      <c r="A41" s="8">
-        <v>2</v>
-      </c>
-      <c r="B41" s="8">
-        <v>2</v>
-      </c>
-      <c r="C41" s="8">
-        <v>8</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="F41" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="43.2">
@@ -2219,16 +2218,16 @@
         <v>2</v>
       </c>
       <c r="C42" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F42" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="43.2">
@@ -2239,76 +2238,76 @@
         <v>2</v>
       </c>
       <c r="C43" s="8">
+        <v>9</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="43.2">
+      <c r="A44" s="8">
+        <v>2</v>
+      </c>
+      <c r="B44" s="8">
+        <v>2</v>
+      </c>
+      <c r="C44" s="8">
         <v>10</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D44" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E44" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F43" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="144">
-      <c r="A44" s="8">
-        <v>2</v>
-      </c>
-      <c r="B44" s="8">
-        <v>3</v>
-      </c>
-      <c r="C44" s="8">
-        <v>1</v>
-      </c>
-      <c r="D44" s="10" t="s">
+      <c r="F44" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="144">
+      <c r="A45" s="8">
+        <v>2</v>
+      </c>
+      <c r="B45" s="8">
+        <v>3</v>
+      </c>
+      <c r="C45" s="8">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E45" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F44" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="86.4">
-      <c r="A45" s="8">
-        <v>2</v>
-      </c>
-      <c r="B45" s="8">
-        <v>3</v>
-      </c>
-      <c r="C45" s="8">
-        <v>2</v>
-      </c>
-      <c r="D45" s="10" t="s">
+      <c r="F45" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="86.4">
+      <c r="A46" s="8">
+        <v>2</v>
+      </c>
+      <c r="B46" s="8">
+        <v>3</v>
+      </c>
+      <c r="C46" s="8">
+        <v>2</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F45" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="43.2">
-      <c r="A46" s="8">
-        <v>2</v>
-      </c>
-      <c r="B46" s="8">
-        <v>3</v>
-      </c>
-      <c r="C46" s="8">
-        <v>3</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>91</v>
+      <c r="F46" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="43.2">
@@ -2319,16 +2318,16 @@
         <v>3</v>
       </c>
       <c r="C47" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F47" s="8">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="43.2">
@@ -2339,53 +2338,53 @@
         <v>3</v>
       </c>
       <c r="C48" s="8">
+        <v>4</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="43.2">
+      <c r="A49" s="8">
+        <v>2</v>
+      </c>
+      <c r="B49" s="8">
+        <v>3</v>
+      </c>
+      <c r="C49" s="8">
         <v>5</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D49" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E49" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F48" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="86.4">
-      <c r="A49" s="8">
-        <v>2</v>
-      </c>
-      <c r="B49" s="8">
-        <v>3</v>
-      </c>
-      <c r="C49" s="8">
+      <c r="F49" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="86.4">
+      <c r="A50" s="8">
+        <v>2</v>
+      </c>
+      <c r="B50" s="8">
+        <v>3</v>
+      </c>
+      <c r="C50" s="8">
         <v>6</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D50" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E50" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="43.2">
-      <c r="A50" s="8">
-        <v>2</v>
-      </c>
-      <c r="B50" s="8">
-        <v>3</v>
-      </c>
-      <c r="C50" s="8">
-        <v>7</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="F50" s="8">
         <v>2</v>
@@ -2399,13 +2398,13 @@
         <v>3</v>
       </c>
       <c r="C51" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" s="8">
         <v>2</v>
@@ -2419,35 +2418,55 @@
         <v>3</v>
       </c>
       <c r="C52" s="8">
+        <v>8</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="43.2">
+      <c r="A53" s="8">
+        <v>2</v>
+      </c>
+      <c r="B53" s="8">
+        <v>3</v>
+      </c>
+      <c r="C53" s="8">
         <v>9</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D53" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E53" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F52" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.6">
-      <c r="A53" s="8">
-        <v>2</v>
-      </c>
-      <c r="B53" s="8">
-        <v>1</v>
-      </c>
-      <c r="C53" s="8">
+      <c r="F53" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.6">
+      <c r="A54" s="8">
+        <v>2</v>
+      </c>
+      <c r="B54" s="8">
+        <v>1</v>
+      </c>
+      <c r="C54" s="8">
         <v>11</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D54" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E54" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F54" t="s">
         <v>106</v>
       </c>
     </row>

--- a/src/sources/exercises.xlsx
+++ b/src/sources/exercises.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Илья\Desktop\Буфер для сайта\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Илья\Documents\physics\src\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781BB3A6-A746-4642-B2F3-7242E10BB5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C927CD8-AC57-466E-8EE6-F32998EF3B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3789CC9-61E8-47BE-93CC-76E693329D75}"/>
   </bookViews>
@@ -10740,8 +10740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C269DD70-9130-42DB-AB6D-74839CBD159E}">
   <dimension ref="A1:F5120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D322" sqref="D322"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>

--- a/src/sources/exercises.xlsx
+++ b/src/sources/exercises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Илья\Documents\physics\src\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C927CD8-AC57-466E-8EE6-F32998EF3B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714F8F10-F0EA-4F87-99FA-6BBE241BE59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3789CC9-61E8-47BE-93CC-76E693329D75}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6405" uniqueCount="3225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6404" uniqueCount="3242">
   <si>
     <r>
       <t xml:space="preserve">Множество </t>
@@ -9762,6 +9762,57 @@
   </si>
   <si>
     <t>img.106.3.10</t>
+  </si>
+  <si>
+    <t>Мы сами хз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отношение = деление </t>
+  </si>
+  <si>
+    <t>Тут только надсказка</t>
+  </si>
+  <si>
+    <t>Если количество увеличивается в 3 раза, стоимость тоже увеличивается в 3 раза.</t>
+  </si>
+  <si>
+    <t>Прямая пропорциональность — когда обе величины изменяются одинаково (увеличиваются/уменьшаются в одинаковое число раз).</t>
+  </si>
+  <si>
+    <t>Найдите стоимость 1 кг (360 ÷ 3 = 120), затем умножьте на 7.</t>
+  </si>
+  <si>
+    <t>Если нужно сшить в 2 раза больше платьев, ткани потребуется в 2 раза больше.</t>
+  </si>
+  <si>
+    <t>Площадь увеличивается в 3 раза → краски тоже нужно в 3 раза больше.</t>
+  </si>
+  <si>
+    <t>Время увеличивается в 2.5 раза → стоимость тоже увеличивается в 2.5 раза.</t>
+  </si>
+  <si>
+    <t>Найдите стоимость 1 билета (4000 ÷ 8 = 500), затем умножьте на 12.</t>
+  </si>
+  <si>
+    <t>Больше стульев → больше времени при той же скорости работы.</t>
+  </si>
+  <si>
+    <t>Количество карандашей увеличивается в 3 раза → стоимость тоже увеличивается в 3 раза.</t>
+  </si>
+  <si>
+    <t>Найдите стоимость 1 кг (500 ÷ 2 = 250), затем умножьте на 6.</t>
+  </si>
+  <si>
+    <t>Если нужно сделать в 2 раза больше столов, досок потребуется в 2 раза больше.</t>
+  </si>
+  <si>
+    <t>Количество увеличивается в 3 раза → стоимость тоже увеличивается в 3 раза.</t>
+  </si>
+  <si>
+    <t>Найдите стоимость 1 литра (320 ÷ 4 = 80), затем умножьте на 10.</t>
+  </si>
+  <si>
+    <t>Стоимость прямо пропорциональна массе. Найдите цену за 1 кг.</t>
   </si>
 </sst>
 </file>
@@ -10344,7 +10395,7 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -10382,6 +10433,9 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -10740,8 +10794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C269DD70-9130-42DB-AB6D-74839CBD159E}">
   <dimension ref="A1:F5120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -12568,10 +12622,10 @@
         <v>145</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>104</v>
+        <v>3225</v>
       </c>
       <c r="F91" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.6">
@@ -12588,10 +12642,10 @@
         <v>146</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>104</v>
+        <v>3226</v>
       </c>
       <c r="F92" s="8">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.6">
@@ -12608,10 +12662,10 @@
         <v>147</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>104</v>
+        <v>3227</v>
       </c>
       <c r="F93" s="8">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.6">
@@ -12627,14 +12681,14 @@
       <c r="D94" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E94" s="10" t="s">
-        <v>104</v>
+      <c r="E94" s="14">
+        <v>5</v>
       </c>
       <c r="F94" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="15.6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="28.8">
       <c r="A95" s="8">
         <v>4</v>
       </c>
@@ -12648,13 +12702,13 @@
         <v>149</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>104</v>
+        <v>3228</v>
       </c>
       <c r="F95" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15.6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="43.2">
       <c r="A96" s="8">
         <v>4</v>
       </c>
@@ -12668,13 +12722,13 @@
         <v>150</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>104</v>
+        <v>3229</v>
       </c>
       <c r="F96" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="15.6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="28.8">
       <c r="A97" s="8">
         <v>4</v>
       </c>
@@ -12688,13 +12742,13 @@
         <v>151</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>104</v>
+        <v>3230</v>
       </c>
       <c r="F97" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15.6">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="28.8">
       <c r="A98" s="8">
         <v>4</v>
       </c>
@@ -12708,13 +12762,13 @@
         <v>152</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>104</v>
+        <v>3231</v>
       </c>
       <c r="F98" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="15.6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="28.8">
       <c r="A99" s="8">
         <v>4</v>
       </c>
@@ -12728,13 +12782,13 @@
         <v>153</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>104</v>
+        <v>3232</v>
       </c>
       <c r="F99" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="15.6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="28.8">
       <c r="A100" s="8">
         <v>4</v>
       </c>
@@ -12748,13 +12802,13 @@
         <v>154</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>104</v>
+        <v>3233</v>
       </c>
       <c r="F100" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="15.6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="28.8">
       <c r="A101" s="8">
         <v>4</v>
       </c>
@@ -12768,13 +12822,13 @@
         <v>155</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>104</v>
+        <v>3234</v>
       </c>
       <c r="F101" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="15.6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="28.8">
       <c r="A102" s="8">
         <v>4</v>
       </c>
@@ -12788,13 +12842,13 @@
         <v>156</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>104</v>
+        <v>3235</v>
       </c>
       <c r="F102" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="15.6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="28.8">
       <c r="A103" s="8">
         <v>4</v>
       </c>
@@ -12808,13 +12862,13 @@
         <v>157</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>104</v>
+        <v>3236</v>
       </c>
       <c r="F103" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="15.6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="28.8">
       <c r="A104" s="8">
         <v>4</v>
       </c>
@@ -12828,13 +12882,13 @@
         <v>158</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>104</v>
+        <v>3237</v>
       </c>
       <c r="F104" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="15.6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="28.8">
       <c r="A105" s="8">
         <v>4</v>
       </c>
@@ -12848,13 +12902,13 @@
         <v>159</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>104</v>
+        <v>3238</v>
       </c>
       <c r="F105" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="15.6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="28.8">
       <c r="A106" s="8">
         <v>4</v>
       </c>
@@ -12868,13 +12922,13 @@
         <v>160</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>104</v>
+        <v>3232</v>
       </c>
       <c r="F106" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="15.6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="28.8">
       <c r="A107" s="8">
         <v>4</v>
       </c>
@@ -12888,13 +12942,13 @@
         <v>161</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>104</v>
+        <v>3239</v>
       </c>
       <c r="F107" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="15.6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="28.8">
       <c r="A108" s="8">
         <v>4</v>
       </c>
@@ -12908,13 +12962,13 @@
         <v>162</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>104</v>
+        <v>3239</v>
       </c>
       <c r="F108" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="15.6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="28.8">
       <c r="A109" s="8">
         <v>4</v>
       </c>
@@ -12928,13 +12982,13 @@
         <v>163</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>104</v>
+        <v>3240</v>
       </c>
       <c r="F109" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="15.6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="28.8">
       <c r="A110" s="8">
         <v>4</v>
       </c>
@@ -12948,10 +13002,10 @@
         <v>164</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>104</v>
+        <v>3241</v>
       </c>
       <c r="F110" s="8">
-        <v>5</v>
+        <v>560</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15.6">

--- a/src/sources/exercises.xlsx
+++ b/src/sources/exercises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Илья\Documents\physics\src\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714F8F10-F0EA-4F87-99FA-6BBE241BE59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CD652B-958E-41E8-B2FB-6783B04FD462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3789CC9-61E8-47BE-93CC-76E693329D75}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6404" uniqueCount="3242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6404" uniqueCount="3243">
   <si>
     <r>
       <t xml:space="preserve">Множество </t>
@@ -9813,6 +9813,9 @@
   </si>
   <si>
     <t>Стоимость прямо пропорциональна массе. Найдите цену за 1 кг.</t>
+  </si>
+  <si>
+    <t>Какова длина диагонали прямоугольника со сторонами 2 и 3?</t>
   </si>
 </sst>
 </file>
@@ -10794,8 +10797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C269DD70-9130-42DB-AB6D-74839CBD159E}">
   <dimension ref="A1:F5120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -12408,7 +12411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.6">
+    <row r="81" spans="1:6" ht="28.8">
       <c r="A81" s="8">
         <v>4</v>
       </c>
@@ -12422,7 +12425,7 @@
         <v>135</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>104</v>
+        <v>3242</v>
       </c>
       <c r="F81" s="8">
         <v>5</v>

--- a/src/sources/exercises.xlsx
+++ b/src/sources/exercises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Илья\Documents\physics\src\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CD652B-958E-41E8-B2FB-6783B04FD462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B78E1BE-8C5A-4529-99E6-5CD3C8276AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3789CC9-61E8-47BE-93CC-76E693329D75}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6404" uniqueCount="3243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6404" uniqueCount="3244">
   <si>
     <r>
       <t xml:space="preserve">Множество </t>
@@ -9816,6 +9816,9 @@
   </si>
   <si>
     <t>Какова длина диагонали прямоугольника со сторонами 2 и 3?</t>
+  </si>
+  <si>
+    <t>Просто введи ответ: 6</t>
   </si>
 </sst>
 </file>
@@ -10797,8 +10800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C269DD70-9130-42DB-AB6D-74839CBD159E}">
   <dimension ref="A1:F5120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="E322" sqref="E322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -12411,7 +12414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="28.8">
+    <row r="81" spans="1:6" ht="15.6">
       <c r="A81" s="8">
         <v>4</v>
       </c>
@@ -12425,7 +12428,7 @@
         <v>135</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="F81" s="8">
         <v>5</v>
@@ -17211,7 +17214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="15.6">
+    <row r="321" spans="1:6" ht="28.8">
       <c r="A321" s="8">
         <v>12</v>
       </c>
@@ -17225,7 +17228,7 @@
         <v>375</v>
       </c>
       <c r="E321" s="10" t="s">
-        <v>104</v>
+        <v>3242</v>
       </c>
       <c r="F321" s="8">
         <v>5</v>

--- a/src/sources/exercises.xlsx
+++ b/src/sources/exercises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Илья\Documents\physics\src\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B78E1BE-8C5A-4529-99E6-5CD3C8276AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F944CF-F223-4A83-9C2D-7BBEE646D3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3789CC9-61E8-47BE-93CC-76E693329D75}"/>
   </bookViews>
@@ -9815,10 +9815,10 @@
     <t>Стоимость прямо пропорциональна массе. Найдите цену за 1 кг.</t>
   </si>
   <si>
-    <t>Какова длина диагонали прямоугольника со сторонами 2 и 3?</t>
-  </si>
-  <si>
     <t>Просто введи ответ: 6</t>
+  </si>
+  <si>
+    <t>Какова длина диагонали прямоугольника со сторонами 3 и 4?</t>
   </si>
 </sst>
 </file>
@@ -12428,7 +12428,7 @@
         <v>135</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="F81" s="8">
         <v>5</v>
@@ -17228,7 +17228,7 @@
         <v>375</v>
       </c>
       <c r="E321" s="10" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="F321" s="8">
         <v>5</v>
